--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2905499.038379927</v>
+        <v>2903611.456863523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>87.34271109918878</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.1960097880561</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.32897990642503</v>
       </c>
       <c r="U4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>186.3676115384765</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37.83808333974897</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,10 +1585,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>176.8688121773843</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829618281</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>257.0005239683857</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>24.40666873704808</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.6292254718848</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.77945773664969</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,10 +2296,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>55.51369213499284</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>100.4879364842348</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.75862782376885</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>51.1825995188436</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.60754860971122</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>78.22041541355027</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,7 +3187,7 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898683</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
         <v>80.4835828885717</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.8658378359718</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2553.895440842464</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2553.895440842464</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2300.133655480556</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1969.070768136985</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.070768136985</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>1595.605009875905</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1205.465677900094</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4422,37 +4422,37 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2453.870288883588</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2122.807401540017</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2122.807401540017</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.341643278937</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>92.16326802213109</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765183</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="V13" t="n">
-        <v>607.4268406407766</v>
+        <v>675.0071030383448</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,25 +5297,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033466</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>649.7747748463913</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>649.7747748463913</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5604,10 +5604,10 @@
         <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1474.26306981341</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1185.134431026968</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>930.4499428210811</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>641.0327727841204</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>413.0432218861031</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5753,10 +5753,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>157.6003821033662</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>157.6003821033662</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033662</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765185</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706317</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>475.3232817706389</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X22" t="n">
-        <v>247.3337308726216</v>
+        <v>157.6003821033662</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.3337308726216</v>
+        <v>157.6003821033662</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286133</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>496.7497906007064</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>346.6331511883707</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>198.7200576059776</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V25" t="n">
-        <v>955.103143565574</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286133</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286133</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286133</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028587</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441654</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X28" t="n">
-        <v>414.0663679705859</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="Y28" t="n">
-        <v>414.0663679705859</v>
+        <v>241.9805482336714</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,10 +6482,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>602.9488650238206</v>
+        <v>439.5324299542167</v>
       </c>
       <c r="C31" t="n">
-        <v>489.7735473772846</v>
+        <v>326.3571123076805</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4177732463197</v>
+        <v>232.0013381767154</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463197</v>
+        <v>232.0013381767154</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>232.0013381767154</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>232.0013381767154</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386983</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220518</v>
+        <v>730.4517433652452</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598926</v>
+        <v>565.4200295030857</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
         <v>559.344147222967</v>
@@ -6844,10 +6844,10 @@
         <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,22 +7257,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>921.5583256030199</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7795,22 +7795,22 @@
         <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>392.1113620226428</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504748</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>80.50021372615237</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305233</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.26883114644374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.1743415069727</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>29.52247436820534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>197.1408923213412</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.08042991715232</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>50.63978772762229</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>231.0093062015982</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>44.93311153869642</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>72.20572458002394</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>23.93099889297616</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>174.5270558701935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.0211749436689</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.49015632542888</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934487</v>
@@ -26338,22 +26338,22 @@
         <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>630574.3128851687</v>
+        <v>630574.3128851684</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448203</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007501</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020403</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732793</v>
+      </c>
+      <c r="M4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732797</v>
-      </c>
       <c r="N4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,10 +26494,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.6343490549</v>
+        <v>-184436.6343490554</v>
       </c>
       <c r="C6" t="n">
-        <v>405531.2448654895</v>
+        <v>405531.2448654894</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654894</v>
+        <v>405531.2448654897</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.05148817113</v>
+        <v>-19066.51061414402</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.9849887245</v>
+        <v>506093.5258627524</v>
       </c>
       <c r="G6" t="n">
-        <v>506190.9849887246</v>
+        <v>506093.5258627524</v>
       </c>
       <c r="H6" t="n">
-        <v>506190.9849887243</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="I6" t="n">
-        <v>506190.9849887245</v>
+        <v>506093.5258627523</v>
       </c>
       <c r="J6" t="n">
-        <v>329767.7657961315</v>
+        <v>329670.3066701593</v>
       </c>
       <c r="K6" t="n">
-        <v>463702.1448818962</v>
+        <v>463683.6511439616</v>
       </c>
       <c r="L6" t="n">
-        <v>497913.8401266002</v>
+        <v>497913.8401265998</v>
       </c>
       <c r="M6" t="n">
         <v>373455.7316936298</v>
       </c>
       <c r="N6" t="n">
-        <v>508256.746927467</v>
+        <v>508256.7469274668</v>
       </c>
       <c r="O6" t="n">
-        <v>508256.746927466</v>
+        <v>508256.7469274669</v>
       </c>
       <c r="P6" t="n">
-        <v>464094.1416246209</v>
+        <v>464094.1416246213</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>87.07300170978276</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>158.0449589293569</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516593</v>
       </c>
       <c r="U4" t="n">
-        <v>63.13204062090065</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>64.85655596981283</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>118.3328055020462</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693534</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.99689532463643</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>725.3059354206558</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819994</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>747.6947913160968</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37397,13 +37397,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686865</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>390.9245907766187</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37640,10 +37640,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795902</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
